--- a/Input/preguntas.xlsx
+++ b/Input/preguntas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f8f89820ab55adc2/Escritorio/Natura/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="181" documentId="8_{1D078122-5697-4B0D-B524-BD718F7A00A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4A55DA8-B25B-4515-84C6-C1EF9D5C55C4}"/>
+  <xr:revisionPtr revIDLastSave="212" documentId="8_{1D078122-5697-4B0D-B524-BD718F7A00A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3AEA2DCD-97A4-4853-AF07-F3410987E1A1}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4596" yWindow="2664" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="178">
   <si>
     <t>Género</t>
   </si>
@@ -542,6 +542,18 @@
   </si>
   <si>
     <t xml:space="preserve"> En el último año:Le robaron o atracaron</t>
+  </si>
+  <si>
+    <t>Continuas</t>
+  </si>
+  <si>
+    <t>Control</t>
+  </si>
+  <si>
+    <t>Likert</t>
+  </si>
+  <si>
+    <t>Cat</t>
   </si>
 </sst>
 </file>
@@ -591,12 +603,36 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -678,7 +714,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -698,6 +734,42 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="46">
@@ -1054,8 +1126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R89"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A84" zoomScale="121" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A65" zoomScale="121" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66:B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -1078,13 +1150,15 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="18" customHeight="1">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4"/>
+      <c r="B2" s="17"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="E2" s="19" t="s">
+        <v>177</v>
+      </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -1108,7 +1182,9 @@
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="E3" s="16" t="s">
+        <v>176</v>
+      </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -1124,15 +1200,17 @@
       <c r="R3" s="1"/>
     </row>
     <row r="4" spans="1:18" ht="27.6">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="E4" s="12" t="s">
+        <v>174</v>
+      </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -1148,15 +1226,17 @@
       <c r="R4" s="1"/>
     </row>
     <row r="5" spans="1:18" ht="27.6">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="E5" s="13" t="s">
+        <v>175</v>
+      </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -1316,10 +1396,10 @@
       <c r="R11" s="2"/>
     </row>
     <row r="12" spans="1:18" ht="27.6">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="18" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="1"/>
@@ -1364,10 +1444,10 @@
       <c r="R13" s="1"/>
     </row>
     <row r="14" spans="1:18" ht="41.4">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="18" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="1"/>
@@ -1412,10 +1492,10 @@
       <c r="R15" s="1"/>
     </row>
     <row r="16" spans="1:18" ht="47.4" customHeight="1">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="18" t="s">
         <v>23</v>
       </c>
       <c r="C16" s="1"/>
@@ -1532,10 +1612,10 @@
       <c r="R20" s="1"/>
     </row>
     <row r="21" spans="1:18" ht="55.2">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="18" t="s">
         <v>30</v>
       </c>
       <c r="C21" s="1"/>
@@ -1556,10 +1636,10 @@
       <c r="R21" s="2"/>
     </row>
     <row r="22" spans="1:18" ht="138">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="18" t="s">
         <v>32</v>
       </c>
       <c r="C22" s="1"/>
@@ -1772,10 +1852,10 @@
       <c r="R30" s="1"/>
     </row>
     <row r="31" spans="1:18" ht="41.4">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="18" t="s">
         <v>48</v>
       </c>
       <c r="C31" s="1"/>
@@ -1988,10 +2068,10 @@
       <c r="R39" s="1"/>
     </row>
     <row r="40" spans="1:18" ht="55.2">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="9" t="s">
         <v>138</v>
       </c>
       <c r="C40" s="1"/>
@@ -2012,10 +2092,10 @@
       <c r="R40" s="1"/>
     </row>
     <row r="41" spans="1:18" ht="69">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="9" t="s">
         <v>64</v>
       </c>
       <c r="C41" s="1"/>
@@ -2036,10 +2116,10 @@
       <c r="R41" s="1"/>
     </row>
     <row r="42" spans="1:18" ht="55.2">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="9" t="s">
         <v>65</v>
       </c>
       <c r="C42" s="1"/>
@@ -2060,10 +2140,10 @@
       <c r="R42" s="1"/>
     </row>
     <row r="43" spans="1:18" ht="55.2">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="9" t="s">
         <v>66</v>
       </c>
       <c r="C43" s="1"/>
@@ -2084,10 +2164,10 @@
       <c r="R43" s="1"/>
     </row>
     <row r="44" spans="1:18" ht="69">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="9" t="s">
         <v>67</v>
       </c>
       <c r="C44" s="1"/>
@@ -2132,10 +2212,10 @@
       <c r="R45" s="2"/>
     </row>
     <row r="46" spans="1:18" ht="27.6">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="15" t="s">
         <v>71</v>
       </c>
       <c r="C46" s="1"/>
@@ -2156,10 +2236,10 @@
       <c r="R46" s="1"/>
     </row>
     <row r="47" spans="1:18" ht="49.8" customHeight="1">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="15" t="s">
         <v>73</v>
       </c>
       <c r="C47" s="1"/>
@@ -2180,10 +2260,10 @@
       <c r="R47" s="1"/>
     </row>
     <row r="48" spans="1:18" ht="55.2">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="15" t="s">
         <v>74</v>
       </c>
       <c r="C48" s="1"/>
@@ -2228,10 +2308,10 @@
       <c r="R49" s="1"/>
     </row>
     <row r="50" spans="1:18" ht="69">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="18" t="s">
         <v>78</v>
       </c>
       <c r="C50" s="1"/>
@@ -2252,10 +2332,10 @@
       <c r="R50" s="1"/>
     </row>
     <row r="51" spans="1:18" ht="41.4">
-      <c r="A51" s="4" t="s">
+      <c r="A51" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="18" t="s">
         <v>80</v>
       </c>
       <c r="C51" s="1"/>
@@ -2324,10 +2404,10 @@
       <c r="R53" s="2"/>
     </row>
     <row r="54" spans="1:18" ht="82.8">
-      <c r="A54" s="4" t="s">
+      <c r="A54" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="11" t="s">
         <v>84</v>
       </c>
       <c r="C54" s="1"/>
@@ -2348,10 +2428,10 @@
       <c r="R54" s="1"/>
     </row>
     <row r="55" spans="1:18" ht="69">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="18" t="s">
         <v>86</v>
       </c>
       <c r="C55" s="1"/>
@@ -2372,10 +2452,10 @@
       <c r="R55" s="1"/>
     </row>
     <row r="56" spans="1:18" ht="41.4">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="18" t="s">
         <v>88</v>
       </c>
       <c r="C56" s="1"/>
@@ -2420,10 +2500,10 @@
       <c r="R57" s="1"/>
     </row>
     <row r="58" spans="1:18" ht="96.6">
-      <c r="A58" s="4" t="s">
+      <c r="A58" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="11" t="s">
         <v>91</v>
       </c>
       <c r="C58" s="1"/>
@@ -2444,10 +2524,10 @@
       <c r="R58" s="1"/>
     </row>
     <row r="59" spans="1:18" ht="110.4">
-      <c r="A59" s="4" t="s">
+      <c r="A59" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="11" t="s">
         <v>92</v>
       </c>
       <c r="C59" s="1"/>
@@ -2468,10 +2548,10 @@
       <c r="R59" s="1"/>
     </row>
     <row r="60" spans="1:18" ht="82.8">
-      <c r="A60" s="4" t="s">
+      <c r="A60" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="11" t="s">
         <v>93</v>
       </c>
       <c r="C60" s="1"/>
@@ -2492,10 +2572,10 @@
       <c r="R60" s="1"/>
     </row>
     <row r="61" spans="1:18" ht="82.8">
-      <c r="A61" s="4" t="s">
+      <c r="A61" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="11" t="s">
         <v>94</v>
       </c>
       <c r="C61" s="1"/>
@@ -2516,10 +2596,10 @@
       <c r="R61" s="1"/>
     </row>
     <row r="62" spans="1:18" ht="82.8">
-      <c r="A62" s="4" t="s">
+      <c r="A62" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="11" t="s">
         <v>95</v>
       </c>
       <c r="C62" s="1"/>
@@ -2540,10 +2620,10 @@
       <c r="R62" s="1"/>
     </row>
     <row r="63" spans="1:18" ht="82.8">
-      <c r="A63" s="4" t="s">
+      <c r="A63" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="11" t="s">
         <v>96</v>
       </c>
       <c r="C63" s="1"/>
@@ -2564,10 +2644,10 @@
       <c r="R63" s="1"/>
     </row>
     <row r="64" spans="1:18" ht="82.8">
-      <c r="A64" s="4" t="s">
+      <c r="A64" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="11" t="s">
         <v>97</v>
       </c>
       <c r="C64" s="1"/>
@@ -2588,10 +2668,10 @@
       <c r="R64" s="1"/>
     </row>
     <row r="65" spans="1:18" ht="96.6">
-      <c r="A65" s="4" t="s">
+      <c r="A65" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="11" t="s">
         <v>98</v>
       </c>
       <c r="C65" s="1"/>
@@ -2612,10 +2692,10 @@
       <c r="R65" s="1"/>
     </row>
     <row r="66" spans="1:18" ht="82.8">
-      <c r="A66" s="4" t="s">
+      <c r="A66" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="11" t="s">
         <v>99</v>
       </c>
       <c r="C66" s="1"/>
@@ -2684,10 +2764,10 @@
       <c r="R68" s="1"/>
     </row>
     <row r="69" spans="1:18" ht="55.2">
-      <c r="A69" s="4" t="s">
+      <c r="A69" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="18" t="s">
         <v>105</v>
       </c>
       <c r="C69" s="1"/>
@@ -2708,10 +2788,10 @@
       <c r="R69" s="1"/>
     </row>
     <row r="70" spans="1:18" ht="69">
-      <c r="A70" s="4" t="s">
+      <c r="A70" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B70" s="11" t="s">
         <v>107</v>
       </c>
       <c r="C70" s="1"/>

--- a/Input/preguntas.xlsx
+++ b/Input/preguntas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f8f89820ab55adc2/Escritorio/Natura/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="212" documentId="8_{1D078122-5697-4B0D-B524-BD718F7A00A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3AEA2DCD-97A4-4853-AF07-F3410987E1A1}"/>
+  <xr:revisionPtr revIDLastSave="214" documentId="8_{1D078122-5697-4B0D-B524-BD718F7A00A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65B1F45C-909F-44F8-BEFB-781E00F2F4CC}"/>
   <bookViews>
-    <workbookView xWindow="4596" yWindow="2664" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="6456" yWindow="4056" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="178">
-  <si>
-    <t>Género</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="176">
   <si>
     <t>Filtro A</t>
   </si>
@@ -551,9 +548,6 @@
   </si>
   <si>
     <t>Likert</t>
-  </si>
-  <si>
-    <t>Cat</t>
   </si>
 </sst>
 </file>
@@ -714,7 +708,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -766,9 +760,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1124,10 +1115,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R89"/>
+  <dimension ref="A1:R88"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A65" zoomScale="121" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66:B66"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A80" zoomScale="121" workbookViewId="0">
+      <selection activeCell="I84" sqref="I84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -1143,21 +1134,23 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="18" customHeight="1">
-      <c r="A2" s="17" t="s">
+    </row>
+    <row r="2" spans="1:18" ht="27.6">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17"/>
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="19" t="s">
-        <v>177</v>
+      <c r="E2" s="16" t="s">
+        <v>175</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -1170,20 +1163,20 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
     </row>
     <row r="3" spans="1:18" ht="27.6">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="8" t="s">
         <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>3</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="16" t="s">
-        <v>176</v>
+      <c r="E3" s="12" t="s">
+        <v>173</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -1200,15 +1193,15 @@
       <c r="R3" s="1"/>
     </row>
     <row r="4" spans="1:18" ht="27.6">
-      <c r="A4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="9" t="s">
+      <c r="A4" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="18" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="13" t="s">
         <v>174</v>
       </c>
       <c r="F4" s="1"/>
@@ -1218,25 +1211,23 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-    </row>
-    <row r="5" spans="1:18" ht="27.6">
-      <c r="A5" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="18" t="s">
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+    </row>
+    <row r="5" spans="1:18" ht="82.8">
+      <c r="A5" s="4" t="s">
         <v>5</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="13" t="s">
-        <v>175</v>
-      </c>
+      <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -1244,19 +1235,19 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-    </row>
-    <row r="6" spans="1:18" ht="82.8">
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+    </row>
+    <row r="6" spans="1:18" ht="27.6">
       <c r="A6" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -1277,10 +1268,10 @@
     </row>
     <row r="7" spans="1:18" ht="27.6">
       <c r="A7" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1301,7 +1292,7 @@
     </row>
     <row r="8" spans="1:18" ht="27.6">
       <c r="A8" s="4" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>11</v>
@@ -1328,7 +1319,7 @@
         <v>126</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1347,12 +1338,12 @@
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
     </row>
-    <row r="10" spans="1:18" ht="27.6">
+    <row r="10" spans="1:18">
       <c r="A10" s="4" t="s">
         <v>127</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -1368,15 +1359,15 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-    </row>
-    <row r="11" spans="1:18">
-      <c r="A11" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B11" s="5" t="s">
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+    </row>
+    <row r="11" spans="1:18" ht="27.6">
+      <c r="A11" s="17" t="s">
         <v>13</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -1392,15 +1383,15 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
     </row>
     <row r="12" spans="1:18" ht="27.6">
-      <c r="A12" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="18" t="s">
+      <c r="A12" s="4" t="s">
         <v>15</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1419,12 +1410,12 @@
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
     </row>
-    <row r="13" spans="1:18" ht="27.6">
-      <c r="A13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="5" t="s">
+    <row r="13" spans="1:18" ht="41.4">
+      <c r="A13" s="17" t="s">
         <v>17</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>18</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -1444,11 +1435,11 @@
       <c r="R13" s="1"/>
     </row>
     <row r="14" spans="1:18" ht="41.4">
-      <c r="A14" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="18" t="s">
+      <c r="A14" s="4" t="s">
         <v>19</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -1467,12 +1458,12 @@
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
     </row>
-    <row r="15" spans="1:18" ht="41.4">
-      <c r="A15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="5" t="s">
+    <row r="15" spans="1:18" ht="47.4" customHeight="1">
+      <c r="A15" s="17" t="s">
         <v>21</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>22</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -1491,11 +1482,11 @@
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
     </row>
-    <row r="16" spans="1:18" ht="47.4" customHeight="1">
-      <c r="A16" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="18" t="s">
+    <row r="16" spans="1:18">
+      <c r="A16" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C16" s="1"/>
@@ -1515,7 +1506,7 @@
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" ht="69">
       <c r="A17" s="4" t="s">
         <v>132</v>
       </c>
@@ -1558,17 +1549,17 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-    </row>
-    <row r="19" spans="1:18" ht="69">
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+    </row>
+    <row r="19" spans="1:18" ht="27.6">
       <c r="A19" s="4" t="s">
-        <v>134</v>
+        <v>26</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -1582,17 +1573,17 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-    </row>
-    <row r="20" spans="1:18" ht="27.6">
-      <c r="A20" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="5" t="s">
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+    </row>
+    <row r="20" spans="1:18" ht="55.2">
+      <c r="A20" s="17" t="s">
         <v>28</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>29</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1604,19 +1595,19 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-    </row>
-    <row r="21" spans="1:18" ht="55.2">
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+    </row>
+    <row r="21" spans="1:18" ht="138">
       <c r="A21" s="17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1628,19 +1619,19 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
-    </row>
-    <row r="22" spans="1:18" ht="138">
-      <c r="A22" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="18" t="s">
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+    </row>
+    <row r="22" spans="1:18" ht="96.6">
+      <c r="A22" s="4" t="s">
         <v>32</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1659,9 +1650,9 @@
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
     </row>
-    <row r="23" spans="1:18" ht="96.6">
+    <row r="23" spans="1:18" ht="55.2">
       <c r="A23" s="4" t="s">
-        <v>33</v>
+        <v>134</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>34</v>
@@ -1683,12 +1674,12 @@
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
     </row>
-    <row r="24" spans="1:18" ht="55.2">
+    <row r="24" spans="1:18" ht="41.4">
       <c r="A24" s="4" t="s">
-        <v>135</v>
+        <v>35</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1707,12 +1698,12 @@
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
     </row>
-    <row r="25" spans="1:18" ht="41.4">
+    <row r="25" spans="1:18">
       <c r="A25" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1731,12 +1722,12 @@
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" ht="27.6">
       <c r="A26" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1757,10 +1748,10 @@
     </row>
     <row r="27" spans="1:18" ht="27.6">
       <c r="A27" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1781,10 +1772,10 @@
     </row>
     <row r="28" spans="1:18" ht="27.6">
       <c r="A28" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1805,7 +1796,7 @@
     </row>
     <row r="29" spans="1:18" ht="27.6">
       <c r="A29" s="4" t="s">
-        <v>44</v>
+        <v>135</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>45</v>
@@ -1827,12 +1818,12 @@
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
     </row>
-    <row r="30" spans="1:18" ht="27.6">
-      <c r="A30" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B30" s="5" t="s">
+    <row r="30" spans="1:18" ht="41.4">
+      <c r="A30" s="17" t="s">
         <v>46</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>47</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1851,12 +1842,12 @@
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
     </row>
-    <row r="31" spans="1:18" ht="41.4">
-      <c r="A31" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B31" s="18" t="s">
+    <row r="31" spans="1:18" ht="27.6">
+      <c r="A31" s="4" t="s">
         <v>48</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1877,10 +1868,10 @@
     </row>
     <row r="32" spans="1:18" ht="27.6">
       <c r="A32" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1899,12 +1890,12 @@
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
     </row>
-    <row r="33" spans="1:18" ht="27.6">
+    <row r="33" spans="1:18" ht="55.2">
       <c r="A33" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1923,12 +1914,12 @@
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
     </row>
-    <row r="34" spans="1:18" ht="55.2">
+    <row r="34" spans="1:18" ht="27.6">
       <c r="A34" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1949,10 +1940,10 @@
     </row>
     <row r="35" spans="1:18" ht="27.6">
       <c r="A35" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1973,10 +1964,10 @@
     </row>
     <row r="36" spans="1:18" ht="27.6">
       <c r="A36" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1995,12 +1986,12 @@
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
     </row>
-    <row r="37" spans="1:18" ht="27.6">
+    <row r="37" spans="1:18" ht="55.2">
       <c r="A37" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -2019,9 +2010,9 @@
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
     </row>
-    <row r="38" spans="1:18" ht="55.2">
+    <row r="38" spans="1:18" ht="70.2" customHeight="1">
       <c r="A38" s="4" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>62</v>
@@ -2043,12 +2034,12 @@
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
     </row>
-    <row r="39" spans="1:18" ht="70.2" customHeight="1">
-      <c r="A39" s="4" t="s">
+    <row r="39" spans="1:18" ht="55.2">
+      <c r="A39" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B39" s="9" t="s">
         <v>137</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>63</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -2067,12 +2058,12 @@
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
     </row>
-    <row r="40" spans="1:18" ht="55.2">
+    <row r="40" spans="1:18" ht="69">
       <c r="A40" s="8" t="s">
         <v>139</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>138</v>
+        <v>63</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -2091,7 +2082,7 @@
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
     </row>
-    <row r="41" spans="1:18" ht="69">
+    <row r="41" spans="1:18" ht="55.2">
       <c r="A41" s="8" t="s">
         <v>140</v>
       </c>
@@ -2139,7 +2130,7 @@
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
     </row>
-    <row r="43" spans="1:18" ht="55.2">
+    <row r="43" spans="1:18" ht="69">
       <c r="A43" s="8" t="s">
         <v>142</v>
       </c>
@@ -2163,12 +2154,12 @@
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
     </row>
-    <row r="44" spans="1:18" ht="69">
+    <row r="44" spans="1:18" ht="55.2">
       <c r="A44" s="8" t="s">
-        <v>143</v>
+        <v>67</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -2185,14 +2176,14 @@
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
-      <c r="R44" s="1"/>
-    </row>
-    <row r="45" spans="1:18" ht="55.2">
-      <c r="A45" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B45" s="5" t="s">
+      <c r="R44" s="2"/>
+    </row>
+    <row r="45" spans="1:18" ht="27.6">
+      <c r="A45" s="14" t="s">
         <v>69</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>70</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -2209,14 +2200,14 @@
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
-      <c r="R45" s="2"/>
-    </row>
-    <row r="46" spans="1:18" ht="27.6">
+      <c r="R45" s="1"/>
+    </row>
+    <row r="46" spans="1:18" ht="49.8" customHeight="1">
       <c r="A46" s="14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -2235,9 +2226,9 @@
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
     </row>
-    <row r="47" spans="1:18" ht="49.8" customHeight="1">
+    <row r="47" spans="1:18" ht="55.2">
       <c r="A47" s="14" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="B47" s="15" t="s">
         <v>73</v>
@@ -2260,11 +2251,11 @@
       <c r="R47" s="1"/>
     </row>
     <row r="48" spans="1:18" ht="55.2">
-      <c r="A48" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="B48" s="15" t="s">
+      <c r="A48" s="4" t="s">
         <v>74</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -2283,12 +2274,12 @@
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
     </row>
-    <row r="49" spans="1:18" ht="55.2">
-      <c r="A49" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B49" s="5" t="s">
+    <row r="49" spans="1:18" ht="69">
+      <c r="A49" s="17" t="s">
         <v>76</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>77</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -2307,12 +2298,12 @@
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
     </row>
-    <row r="50" spans="1:18" ht="69">
+    <row r="50" spans="1:18" ht="41.4">
       <c r="A50" s="17" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -2331,11 +2322,11 @@
       <c r="Q50" s="1"/>
       <c r="R50" s="1"/>
     </row>
-    <row r="51" spans="1:18" ht="41.4">
-      <c r="A51" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="B51" s="18" t="s">
+    <row r="51" spans="1:18" ht="69">
+      <c r="A51" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B51" s="5" t="s">
         <v>80</v>
       </c>
       <c r="C51" s="1"/>
@@ -2346,16 +2337,16 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
-      <c r="O51" s="1"/>
-      <c r="P51" s="1"/>
-      <c r="Q51" s="1"/>
-      <c r="R51" s="1"/>
-    </row>
-    <row r="52" spans="1:18" ht="69">
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="2"/>
+      <c r="R51" s="2"/>
+    </row>
+    <row r="52" spans="1:18" ht="41.4">
       <c r="A52" s="4" t="s">
         <v>145</v>
       </c>
@@ -2379,12 +2370,12 @@
       <c r="Q52" s="2"/>
       <c r="R52" s="2"/>
     </row>
-    <row r="53" spans="1:18" ht="41.4">
-      <c r="A53" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="B53" s="5" t="s">
+    <row r="53" spans="1:18" ht="82.8">
+      <c r="A53" s="10" t="s">
         <v>82</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>83</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -2394,21 +2385,21 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
-      <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
-      <c r="P53" s="2"/>
-      <c r="Q53" s="2"/>
-      <c r="R53" s="2"/>
-    </row>
-    <row r="54" spans="1:18" ht="82.8">
-      <c r="A54" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B54" s="11" t="s">
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="1"/>
+    </row>
+    <row r="54" spans="1:18" ht="69">
+      <c r="A54" s="17" t="s">
         <v>84</v>
+      </c>
+      <c r="B54" s="18" t="s">
+        <v>85</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -2427,12 +2418,12 @@
       <c r="Q54" s="1"/>
       <c r="R54" s="1"/>
     </row>
-    <row r="55" spans="1:18" ht="69">
+    <row r="55" spans="1:18" ht="41.4">
       <c r="A55" s="17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -2451,12 +2442,12 @@
       <c r="Q55" s="1"/>
       <c r="R55" s="1"/>
     </row>
-    <row r="56" spans="1:18" ht="41.4">
-      <c r="A56" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="B56" s="18" t="s">
+    <row r="56" spans="1:18" ht="55.2">
+      <c r="A56" s="4" t="s">
         <v>88</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>89</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -2475,11 +2466,11 @@
       <c r="Q56" s="1"/>
       <c r="R56" s="1"/>
     </row>
-    <row r="57" spans="1:18" ht="55.2">
-      <c r="A57" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B57" s="5" t="s">
+    <row r="57" spans="1:18" ht="96.6">
+      <c r="A57" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B57" s="11" t="s">
         <v>90</v>
       </c>
       <c r="C57" s="1"/>
@@ -2499,7 +2490,7 @@
       <c r="Q57" s="1"/>
       <c r="R57" s="1"/>
     </row>
-    <row r="58" spans="1:18" ht="96.6">
+    <row r="58" spans="1:18" ht="110.4">
       <c r="A58" s="10" t="s">
         <v>147</v>
       </c>
@@ -2523,7 +2514,7 @@
       <c r="Q58" s="1"/>
       <c r="R58" s="1"/>
     </row>
-    <row r="59" spans="1:18" ht="110.4">
+    <row r="59" spans="1:18" ht="82.8">
       <c r="A59" s="10" t="s">
         <v>148</v>
       </c>
@@ -2643,7 +2634,7 @@
       <c r="Q63" s="1"/>
       <c r="R63" s="1"/>
     </row>
-    <row r="64" spans="1:18" ht="82.8">
+    <row r="64" spans="1:18" ht="96.6">
       <c r="A64" s="10" t="s">
         <v>153</v>
       </c>
@@ -2667,7 +2658,7 @@
       <c r="Q64" s="1"/>
       <c r="R64" s="1"/>
     </row>
-    <row r="65" spans="1:18" ht="96.6">
+    <row r="65" spans="1:18" ht="82.8">
       <c r="A65" s="10" t="s">
         <v>154</v>
       </c>
@@ -2691,12 +2682,12 @@
       <c r="Q65" s="1"/>
       <c r="R65" s="1"/>
     </row>
-    <row r="66" spans="1:18" ht="82.8">
-      <c r="A66" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="B66" s="11" t="s">
+    <row r="66" spans="1:18" ht="55.2">
+      <c r="A66" s="4" t="s">
         <v>99</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>100</v>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -2717,10 +2708,10 @@
     </row>
     <row r="67" spans="1:18" ht="55.2">
       <c r="A67" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -2740,11 +2731,11 @@
       <c r="R67" s="1"/>
     </row>
     <row r="68" spans="1:18" ht="55.2">
-      <c r="A68" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B68" s="5" t="s">
+      <c r="A68" s="17" t="s">
         <v>103</v>
+      </c>
+      <c r="B68" s="18" t="s">
+        <v>104</v>
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -2763,12 +2754,12 @@
       <c r="Q68" s="1"/>
       <c r="R68" s="1"/>
     </row>
-    <row r="69" spans="1:18" ht="55.2">
-      <c r="A69" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="B69" s="18" t="s">
+    <row r="69" spans="1:18" ht="69">
+      <c r="A69" s="10" t="s">
         <v>105</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -2787,12 +2778,12 @@
       <c r="Q69" s="1"/>
       <c r="R69" s="1"/>
     </row>
-    <row r="70" spans="1:18" ht="69">
-      <c r="A70" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="B70" s="11" t="s">
+    <row r="70" spans="1:18" ht="55.2">
+      <c r="A70" s="4" t="s">
         <v>107</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>108</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -2813,10 +2804,10 @@
     </row>
     <row r="71" spans="1:18" ht="55.2">
       <c r="A71" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -2835,12 +2826,12 @@
       <c r="Q71" s="1"/>
       <c r="R71" s="1"/>
     </row>
-    <row r="72" spans="1:18" ht="55.2">
+    <row r="72" spans="1:18" ht="124.2">
       <c r="A72" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -2859,12 +2850,12 @@
       <c r="Q72" s="1"/>
       <c r="R72" s="1"/>
     </row>
-    <row r="73" spans="1:18" ht="124.2">
+    <row r="73" spans="1:18" ht="55.2">
       <c r="A73" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -2885,10 +2876,10 @@
     </row>
     <row r="74" spans="1:18" ht="55.2">
       <c r="A74" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -2907,12 +2898,12 @@
       <c r="Q74" s="1"/>
       <c r="R74" s="1"/>
     </row>
-    <row r="75" spans="1:18" ht="55.2">
+    <row r="75" spans="1:18" ht="138">
       <c r="A75" s="4" t="s">
-        <v>116</v>
+        <v>157</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>117</v>
+        <v>165</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -2931,7 +2922,7 @@
       <c r="Q75" s="1"/>
       <c r="R75" s="1"/>
     </row>
-    <row r="76" spans="1:18" ht="138">
+    <row r="76" spans="1:18" ht="41.4">
       <c r="A76" s="4" t="s">
         <v>158</v>
       </c>
@@ -2955,7 +2946,7 @@
       <c r="Q76" s="1"/>
       <c r="R76" s="1"/>
     </row>
-    <row r="77" spans="1:18" ht="41.4">
+    <row r="77" spans="1:18" ht="55.2">
       <c r="A77" s="4" t="s">
         <v>159</v>
       </c>
@@ -3003,7 +2994,7 @@
       <c r="Q78" s="1"/>
       <c r="R78" s="1"/>
     </row>
-    <row r="79" spans="1:18" ht="55.2">
+    <row r="79" spans="1:18" ht="27.6">
       <c r="A79" s="4" t="s">
         <v>161</v>
       </c>
@@ -3027,7 +3018,7 @@
       <c r="Q79" s="1"/>
       <c r="R79" s="1"/>
     </row>
-    <row r="80" spans="1:18" ht="27.6">
+    <row r="80" spans="1:18" ht="55.2">
       <c r="A80" s="4" t="s">
         <v>162</v>
       </c>
@@ -3051,12 +3042,12 @@
       <c r="Q80" s="1"/>
       <c r="R80" s="1"/>
     </row>
-    <row r="81" spans="1:18" ht="55.2">
+    <row r="81" spans="1:18" ht="27.6">
       <c r="A81" s="4" t="s">
         <v>163</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -3080,7 +3071,7 @@
         <v>164</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -3101,10 +3092,10 @@
     </row>
     <row r="83" spans="1:18" ht="27.6">
       <c r="A83" s="4" t="s">
-        <v>165</v>
+        <v>117</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>172</v>
+        <v>118</v>
       </c>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -3125,7 +3116,7 @@
     </row>
     <row r="84" spans="1:18" ht="27.6">
       <c r="A84" s="4" t="s">
-        <v>118</v>
+        <v>155</v>
       </c>
       <c r="B84" s="5" t="s">
         <v>119</v>
@@ -3147,7 +3138,7 @@
       <c r="Q84" s="1"/>
       <c r="R84" s="1"/>
     </row>
-    <row r="85" spans="1:18" ht="27.6">
+    <row r="85" spans="1:18" ht="69">
       <c r="A85" s="4" t="s">
         <v>156</v>
       </c>
@@ -3171,12 +3162,12 @@
       <c r="Q85" s="1"/>
       <c r="R85" s="1"/>
     </row>
-    <row r="86" spans="1:18" ht="69">
+    <row r="86" spans="1:18" ht="27.6">
       <c r="A86" s="4" t="s">
-        <v>157</v>
+        <v>121</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -3195,12 +3186,12 @@
       <c r="Q86" s="1"/>
       <c r="R86" s="1"/>
     </row>
-    <row r="87" spans="1:18" ht="27.6">
+    <row r="87" spans="1:18" ht="41.4">
       <c r="A87" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -3219,32 +3210,8 @@
       <c r="Q87" s="1"/>
       <c r="R87" s="1"/>
     </row>
-    <row r="88" spans="1:18" ht="41.4">
-      <c r="A88" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
-      <c r="G88" s="1"/>
-      <c r="H88" s="1"/>
-      <c r="I88" s="1"/>
-      <c r="J88" s="1"/>
-      <c r="K88" s="1"/>
-      <c r="L88" s="1"/>
-      <c r="M88" s="1"/>
-      <c r="N88" s="1"/>
-      <c r="O88" s="1"/>
-      <c r="P88" s="1"/>
-      <c r="Q88" s="1"/>
-      <c r="R88" s="1"/>
-    </row>
-    <row r="89" spans="1:18">
-      <c r="B89" s="2"/>
+    <row r="88" spans="1:18">
+      <c r="B88" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
